--- a/DLS_Plots/20240122_DLS_DIP_Serum.xlsx
+++ b/DLS_Plots/20240122_DLS_DIP_Serum.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mines0-my.sharepoint.com/personal/aryellewright_mines_edu/Documents/Research/Kumar Research Lab/Aryelle's Lab Notebook/DLS-Zeta Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/DLS_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3A6A87F-98C9-0D4B-BE26-D82B350FA5B8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3A871D-C111-274B-934B-D2C07C794DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14260" yWindow="1320" windowWidth="18120" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>Polymer</t>
   </si>
@@ -61,19 +62,31 @@
   </si>
   <si>
     <t>G3</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,8 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,7 +451,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C6"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -453,7 +469,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1812.55</v>
@@ -464,7 +480,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>488.86666666666673</v>
@@ -634,4 +650,85 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D78E51-3B86-9D4E-9158-24C286827D1D}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>158.46</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>147.33000000000001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8.5299999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>102.4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>127.98</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>116.23</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>